--- a/myy.xlsx
+++ b/myy.xlsx
@@ -118,6 +118,12 @@
     <x:t>User should be able to validate that a New Account is created</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>View Account</x:t>
   </x:si>
   <x:si>
@@ -131,12 +137,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the Account Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Edit Account</x:t>
@@ -235,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0">
-  <x:autoFilter ref="A1:J21"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J30" totalsRowShown="0">
+  <x:autoFilter ref="A1:J30"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -541,7 +541,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J21"/>
+  <x:dimension ref="A1:J30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -829,7 +829,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>13</x:v>
@@ -839,10 +839,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -857,56 +857,54 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="A16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -916,61 +914,61 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
+      <x:c r="A18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s"/>
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -980,15 +978,17 @@
       <x:c r="B20" s="0" t="s"/>
       <x:c r="C20" s="0" t="s"/>
       <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1000,16 +1000,206 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s"/>
+      <x:c r="F28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s"/>
+      <x:c r="F29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s"/>
+      <x:c r="F30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
